--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Pomc</t>
+  </si>
+  <si>
+    <t>Mc5r</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Pomc</t>
-  </si>
-  <si>
-    <t>Mc5r</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H2">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I2">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9666250000000001</v>
+        <v>1.093967666666667</v>
       </c>
       <c r="N2">
-        <v>1.93325</v>
+        <v>3.281903</v>
       </c>
       <c r="O2">
-        <v>0.322724746715536</v>
+        <v>0.7020313842117203</v>
       </c>
       <c r="P2">
-        <v>0.2550922792114143</v>
+        <v>0.7500535931645747</v>
       </c>
       <c r="Q2">
-        <v>1.4452604849375</v>
+        <v>0.8812549526085</v>
       </c>
       <c r="R2">
-        <v>5.78104193975</v>
+        <v>5.287529715650999</v>
       </c>
       <c r="S2">
-        <v>0.194304169835911</v>
+        <v>0.7020313842117203</v>
       </c>
       <c r="T2">
-        <v>0.1280977141907671</v>
+        <v>0.7500535931645747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H3">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I3">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.093967666666667</v>
+        <v>0.1016926666666667</v>
       </c>
       <c r="N3">
-        <v>3.281903</v>
+        <v>0.305078</v>
       </c>
       <c r="O3">
-        <v>0.3652403342971534</v>
+        <v>0.06525918975440262</v>
       </c>
       <c r="P3">
-        <v>0.4330470018987601</v>
+        <v>0.06972322158682391</v>
       </c>
       <c r="Q3">
-        <v>1.635658337444833</v>
+        <v>0.081919392021</v>
       </c>
       <c r="R3">
-        <v>9.813950024668998</v>
+        <v>0.491516352126</v>
       </c>
       <c r="S3">
-        <v>0.2199016984859643</v>
+        <v>0.06525918975440262</v>
       </c>
       <c r="T3">
-        <v>0.2174598590434869</v>
+        <v>0.06972322158682391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H4">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I4">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.4403435000000001</v>
+        <v>0.2993085</v>
       </c>
       <c r="N4">
-        <v>0.8806870000000001</v>
+        <v>0.598617</v>
       </c>
       <c r="O4">
-        <v>0.1470164174373026</v>
+        <v>0.1920751105940672</v>
       </c>
       <c r="P4">
-        <v>0.1162066230967866</v>
+        <v>0.1368092938089268</v>
       </c>
       <c r="Q4">
-        <v>0.65838464797525</v>
+        <v>0.24111050629725</v>
       </c>
       <c r="R4">
-        <v>2.633538591901</v>
+        <v>0.9644420251889999</v>
       </c>
       <c r="S4">
-        <v>0.08851475826731098</v>
+        <v>0.1920751105940672</v>
       </c>
       <c r="T4">
-        <v>0.05835457991337081</v>
+        <v>0.1368092938089268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,433 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.4951615</v>
+        <v>0.8055585</v>
       </c>
       <c r="H5">
-        <v>2.990323</v>
+        <v>1.611117</v>
       </c>
       <c r="I5">
-        <v>0.6020739711267923</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5021622551131892</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.482754</v>
+        <v>0.06332</v>
       </c>
       <c r="N5">
-        <v>1.448262</v>
+        <v>0.18996</v>
       </c>
       <c r="O5">
-        <v>0.1611759083159569</v>
+        <v>0.04063431543980989</v>
       </c>
       <c r="P5">
-        <v>0.1910981272340779</v>
+        <v>0.04341389143967467</v>
       </c>
       <c r="Q5">
-        <v>0.7217951947709998</v>
+        <v>0.05100796422</v>
       </c>
       <c r="R5">
-        <v>4.330771168625999</v>
+        <v>0.30604778532</v>
       </c>
       <c r="S5">
-        <v>0.09703981916975597</v>
+        <v>0.04063431543980989</v>
       </c>
       <c r="T5">
-        <v>0.09596226651977174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.4951615</v>
-      </c>
-      <c r="H6">
-        <v>2.990323</v>
-      </c>
-      <c r="I6">
-        <v>0.6020739711267923</v>
-      </c>
-      <c r="J6">
-        <v>0.5021622551131892</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.01150933333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.034528</v>
-      </c>
-      <c r="O6">
-        <v>0.003842593234051132</v>
-      </c>
-      <c r="P6">
-        <v>0.004555968558961184</v>
-      </c>
-      <c r="Q6">
-        <v>0.01720831209066666</v>
-      </c>
-      <c r="R6">
-        <v>0.103249872544</v>
-      </c>
-      <c r="S6">
-        <v>0.002313525367850108</v>
-      </c>
-      <c r="T6">
-        <v>0.002287835445792735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H7">
-        <v>2.964571</v>
-      </c>
-      <c r="I7">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J7">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.9666250000000001</v>
-      </c>
-      <c r="N7">
-        <v>1.93325</v>
-      </c>
-      <c r="O7">
-        <v>0.322724746715536</v>
-      </c>
-      <c r="P7">
-        <v>0.2550922792114143</v>
-      </c>
-      <c r="Q7">
-        <v>0.9552094809583334</v>
-      </c>
-      <c r="R7">
-        <v>5.73125688575</v>
-      </c>
-      <c r="S7">
-        <v>0.128420576879625</v>
-      </c>
-      <c r="T7">
-        <v>0.1269945650206472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.964571</v>
-      </c>
-      <c r="I8">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J8">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.093967666666667</v>
-      </c>
-      <c r="N8">
-        <v>3.281903</v>
-      </c>
-      <c r="O8">
-        <v>0.3652403342971534</v>
-      </c>
-      <c r="P8">
-        <v>0.4330470018987601</v>
-      </c>
-      <c r="Q8">
-        <v>1.081048273179222</v>
-      </c>
-      <c r="R8">
-        <v>9.729434458612999</v>
-      </c>
-      <c r="S8">
-        <v>0.1453386358111891</v>
-      </c>
-      <c r="T8">
-        <v>0.2155871428552732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.964571</v>
-      </c>
-      <c r="I9">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J9">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.5</v>
-      </c>
-      <c r="M9">
-        <v>0.4403435000000001</v>
-      </c>
-      <c r="N9">
-        <v>0.8806870000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.1470164174373026</v>
-      </c>
-      <c r="P9">
-        <v>0.1162066230967866</v>
-      </c>
-      <c r="Q9">
-        <v>0.4351431900461667</v>
-      </c>
-      <c r="R9">
-        <v>2.610859140277</v>
-      </c>
-      <c r="S9">
-        <v>0.05850165916999165</v>
-      </c>
-      <c r="T9">
-        <v>0.05785204318341584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.964571</v>
-      </c>
-      <c r="I10">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J10">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.482754</v>
-      </c>
-      <c r="N10">
-        <v>1.448262</v>
-      </c>
-      <c r="O10">
-        <v>0.1611759083159569</v>
-      </c>
-      <c r="P10">
-        <v>0.1910981272340779</v>
-      </c>
-      <c r="Q10">
-        <v>0.4770528361779999</v>
-      </c>
-      <c r="R10">
-        <v>4.293475525601999</v>
-      </c>
-      <c r="S10">
-        <v>0.06413608914620096</v>
-      </c>
-      <c r="T10">
-        <v>0.09513586071430619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.9881903333333333</v>
-      </c>
-      <c r="H11">
-        <v>2.964571</v>
-      </c>
-      <c r="I11">
-        <v>0.3979260288732078</v>
-      </c>
-      <c r="J11">
-        <v>0.4978377448868108</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01150933333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.034528</v>
-      </c>
-      <c r="O11">
-        <v>0.003842593234051132</v>
-      </c>
-      <c r="P11">
-        <v>0.004555968558961184</v>
-      </c>
-      <c r="Q11">
-        <v>0.01137341194311111</v>
-      </c>
-      <c r="R11">
-        <v>0.102360707488</v>
-      </c>
-      <c r="S11">
-        <v>0.001529067866201024</v>
-      </c>
-      <c r="T11">
-        <v>0.002268133113168449</v>
+        <v>0.04341389143967467</v>
       </c>
     </row>
   </sheetData>
